--- a/rain_tools/static/partner_import.xlsx
+++ b/rain_tools/static/partner_import.xlsx
@@ -79,40 +79,6 @@
     <t>名称</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>地址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>国家／省／市／区／街道</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
     <t>电话</t>
   </si>
   <si>
@@ -202,7 +168,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>中国/山东省/青岛市/李沧区/四流中路3号</t>
+    <t>地址</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东省青岛市李沧区四流中路3号</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -677,9 +647,9 @@
   </sheetPr>
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="86" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="86" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -725,65 +695,65 @@
         <v>3</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="N2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="O2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="P2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="Q2" s="18" t="s">
         <v>16</v>
-      </c>
-      <c r="Q2" s="18" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="13">
         <v>13370880011</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" s="14">
         <v>2222</v>
@@ -795,33 +765,33 @@
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N3" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O3" s="3">
         <v>77777</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="13">
         <v>13509808899</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H4" s="14">
         <v>555</v>
@@ -833,19 +803,19 @@
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="M4" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N4" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O4" s="3">
         <v>88889900001</v>
       </c>
       <c r="P4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
